--- a/polydata.xlsx
+++ b/polydata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/nils_kvilvang_inn_no/Documents/Dokumenter/Undervisning/AKA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60C4E38F-46C6-4935-87D7-AE35D7FB621A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{60C4E38F-46C6-4935-87D7-AE35D7FB621A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F2CF15E-458A-4876-85B2-6B86DF9B8A6F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{72F4DA79-504F-4CC3-8C2A-CF8FEA3B1352}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{72F4DA79-504F-4CC3-8C2A-CF8FEA3B1352}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -398,16 +398,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -423,7 +423,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -431,7 +431,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -439,7 +439,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -447,7 +447,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -455,7 +455,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -463,7 +463,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -471,7 +471,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -479,7 +479,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -487,7 +487,7 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
